--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto\Projetos\financas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Augusto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC3163-7E15-47D8-BC79-980955A94FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEF3DC4-898B-417E-BE27-F3646C0A4605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{44C2D59F-AA6D-492E-B028-43CF97BA58A2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="238">
   <si>
     <t>Exchange</t>
   </si>
@@ -898,6 +898,18 @@
   </si>
   <si>
     <t>^SZSC1</t>
+  </si>
+  <si>
+    <t>Euronext Paris</t>
+  </si>
+  <si>
+    <t>$2.9 Trillion</t>
+  </si>
+  <si>
+    <t>^FCHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
   </si>
 </sst>
 </file>
@@ -1351,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9CFB01-0DA4-47CF-8856-D9B7195C2A71}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,77 +1538,77 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
+      <c r="A9" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>205</v>
       </c>
       <c r="F9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>211</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>206</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
       </c>
       <c r="E12" t="s">
         <v>205</v>
@@ -1606,57 +1618,57 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
         <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
         <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
         <v>205</v>
@@ -1666,120 +1678,120 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>221</v>
-      </c>
-      <c r="E16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>232</v>
       </c>
       <c r="E17" t="s">
         <v>206</v>
       </c>
       <c r="F17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>222</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>205</v>
-      </c>
-      <c r="F18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" t="s">
-        <v>206</v>
       </c>
       <c r="F19" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
         <v>208</v>
@@ -1787,99 +1799,99 @@
     </row>
     <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
         <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>66</v>
+      <c r="A23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
         <v>206</v>
       </c>
       <c r="F23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>231</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>205</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
         <v>208</v>
@@ -1887,472 +1899,492 @@
     </row>
     <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>228</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>206</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:6" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
+    <row r="37" spans="1:3" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4" t="s">
+    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
+    <row r="65" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8" t="s">
+    <row r="69" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2365,66 +2397,66 @@
     <hyperlink ref="A6" r:id="rId5" display="https://www.tradinghours.com/exchanges/hkex" xr:uid="{EFFF6FEC-9D35-42A2-B64F-B8371861701C}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://www.tradinghours.com/exchanges/lse" xr:uid="{B73C89AC-4A37-434D-A94F-6BFEBE7021FA}"/>
     <hyperlink ref="A8" r:id="rId7" display="https://www.tradinghours.com/exchanges/szse" xr:uid="{697993C0-25C8-4F1A-9452-59FB86A5F2D0}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.tradinghours.com/exchanges/tsx" xr:uid="{16FCBB98-DCE8-4621-9638-D29C4EB70644}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.tradinghours.com/exchanges/bse-bombay" xr:uid="{A96E59A2-3A4A-4413-9657-0F0CC6D8D5DC}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.tradinghours.com/exchanges/fsx" xr:uid="{0CE85572-FB22-4077-B7A1-0FE04FDE0F34}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.tradinghours.com/exchanges/six" xr:uid="{567237DB-440D-4E78-BD50-889BB56E8D39}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.tradinghours.com/exchanges/asx" xr:uid="{5F6C1415-65AC-4A65-BB73-489F7AD2F1D0}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.tradinghours.com/exchanges/krx" xr:uid="{2A6974DF-800B-4A18-95F0-F012C8FE7263}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.tradinghours.com/exchanges/twse" xr:uid="{CC8DD5F6-C5F6-4978-BAC9-01587BF10B86}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.tradinghours.com/exchanges/bovespa" xr:uid="{9327DE25-E0FB-4941-862D-8FC0FF13A70A}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.tradinghours.com/exchanges/jse" xr:uid="{5FEDADB3-1AAF-4F77-9724-D8DAA599F8B7}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://www.tradinghours.com/exchanges/bmex" xr:uid="{EFD4734E-ABA9-48D6-914A-82ACA7D3E280}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://www.tradinghours.com/exchanges/moex" xr:uid="{C7864B0E-23EA-4FC4-B371-AFAD4055BDBC}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.tradinghours.com/exchanges/sgx" xr:uid="{60761FB9-D145-4873-9A7D-46D175032073}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.tradinghours.com/exchanges/idx" xr:uid="{66B6E606-08B7-4047-8EA3-FEB43CC8BAA4}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.tradinghours.com/exchanges/bmv" xr:uid="{C2B83076-5D0B-4180-AC6E-533B8FA23B33}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://www.tradinghours.com/exchanges/myx" xr:uid="{9E54378B-1940-4959-B01C-3B6F4C46FF28}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://www.tradinghours.com/exchanges/ose" xr:uid="{EE8ABF3E-C7BA-4A99-BDC4-9069B6AE238E}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://www.tradinghours.com/exchanges/pse" xr:uid="{E13DF488-A309-480F-8C06-3D037C9A1C70}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.tradinghours.com/exchanges/tase" xr:uid="{6E342731-79EC-4EAB-BC5D-085B90469EE3}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.tradinghours.com/exchanges/bist" xr:uid="{5F0415B3-142D-45BF-9B31-4C803B945A1F}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://www.tradinghours.com/exchanges/qe" xr:uid="{0CA6FCF7-9DBA-4D64-94F0-61B6FF717755}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://www.tradinghours.com/exchanges/gpw" xr:uid="{4815A690-1934-4196-A522-C39A8C3173ED}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.tradinghours.com/exchanges/adx" xr:uid="{F3B4620D-EA60-4710-B01B-F996A708049B}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.tradinghours.com/exchanges/hose" xr:uid="{A9D70656-DBA6-4E70-9064-618CD5DEF327}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://www.tradinghours.com/exchanges/nsx" xr:uid="{0D7E84F0-133E-4F23-BC4B-B8EB763840FC}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://www.tradinghours.com/exchanges/bvc" xr:uid="{D86FB7D7-86C0-416E-9518-77A3DA5DF804}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://www.tradinghours.com/exchanges/tpex" xr:uid="{512662B7-7C70-437B-9C42-A28B831FE0B5}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://www.tradinghours.com/exchanges/nzx" xr:uid="{941492EA-285A-44FA-B6A6-258023E2F22D}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://www.tradinghours.com/exchanges/dfm" xr:uid="{820B5449-D0E2-4301-AB2D-1D14FAD67F32}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://www.tradinghours.com/exchanges/bvl" xr:uid="{CAE753B9-ACDD-4F49-84F3-B8079DB6FE9F}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://www.tradinghours.com/exchanges/bc" xr:uid="{C276D0FE-EF06-46A0-9902-E34993473213}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://www.tradinghours.com/exchanges/ifb" xr:uid="{1B56EAC6-CF2B-4302-BCF9-33645FC808A8}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://www.tradinghours.com/exchanges/nse-nigeria" xr:uid="{B39070E2-DCF8-4118-A7B1-7B94B393961B}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://www.tradinghours.com/exchanges/egx" xr:uid="{886DC435-21B8-461A-B0E6-E23E94B8CBB9}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://www.tradinghours.com/exchanges/luxse" xr:uid="{A483E337-6B3D-4A17-8907-48FD3502CFB7}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://www.tradinghours.com/exchanges/kase" xr:uid="{82A97CED-C626-45A5-AACC-B51DAE6A1CBF}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://www.tradinghours.com/exchanges/cse" xr:uid="{9118D7F8-FDAA-4C0A-90DF-8456435A41DD}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://www.tradinghours.com/exchanges/dse" xr:uid="{367334D3-F599-427B-B480-B9098BD441B8}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://www.tradinghours.com/exchanges/bse-budapest" xr:uid="{66559828-0D9A-4EDC-B1D0-B36A158D4855}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://www.tradinghours.com/exchanges/bhb" xr:uid="{28072C07-1203-4078-A28D-9082E74DAF95}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://www.tradinghours.com/exchanges/bvb" xr:uid="{4597F409-C9A4-4F20-A5F7-BA582DACC4D8}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://www.tradinghours.com/exchanges/zse" xr:uid="{1DF59AF9-1CCD-4127-B8DA-5F380E5F537D}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://www.tradinghours.com/exchanges/ase-amman" xr:uid="{A58F7E70-504A-49D6-83BE-B46B49A4DCA6}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://www.tradinghours.com/exchanges/msm" xr:uid="{83637919-5E14-4B21-9E79-808D6F3E430F}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://www.tradinghours.com/exchanges/bvpa" xr:uid="{7EA8DE4F-8B7F-4CE5-AD24-DB917D249ADF}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://www.tradinghours.com/exchanges/cse-colombo" xr:uid="{C0850C7B-45A8-46E0-B6E1-476B7BFEF188}"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://www.tradinghours.com/exchanges/jse-jamaica" xr:uid="{9264EC58-8FD9-4091-9F7D-1F823FBF2249}"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://www.tradinghours.com/exchanges/sem" xr:uid="{F465437A-EBA1-4954-858B-1BA1398474F1}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://www.tradinghours.com/exchanges/bse-beirut" xr:uid="{6CD5D4F5-D0D4-4AD6-A435-42C86026B65E}"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://www.tradinghours.com/exchanges/bvmt" xr:uid="{629906DE-6C59-416D-91DB-4B841788E228}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://www.tradinghours.com/exchanges/hnx" xr:uid="{B75E6019-B4BB-4CB5-8A6B-0299AD78E251}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://www.tradinghours.com/exchanges/euronext-paris" xr:uid="{2375B60A-761A-4B4F-89C7-2DB75CA41886}"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://www.tradinghours.com/exchanges/brvm" xr:uid="{B88E1FD2-2A9A-4D42-BF01-FCB77E0E9AF3}"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://www.tradinghours.com/exchanges/mse" xr:uid="{CBE09CAF-BF08-496C-8161-792F66F3DA20}"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://www.tradinghours.com/exchanges/cse-cyprus" xr:uid="{5AFABB35-AC4F-4BA1-AA2D-FA6885CA4C94}"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://www.tradinghours.com/exchanges/ux" xr:uid="{B83318C5-F220-4DCF-98AE-4F2F9A9E8331}"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://www.tradinghours.com/exchanges/pex" xr:uid="{DD327224-4FE9-4193-BBB4-8C2D375F09C7}"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://www.tradinghours.com/exchanges/bse-botswana" xr:uid="{B3788AD5-218D-4BA5-A76A-7A37844672A3}"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://www.tradinghours.com/exchanges/bde-barbados" xr:uid="{5BF1DD77-3F51-4C99-ABC0-61E593F15402}"/>
-    <hyperlink ref="A67" r:id="rId66" display="https://www.tradinghours.com/exchanges/bsx" xr:uid="{DA2295E6-4687-4F08-99C4-5B74136EC961}"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://www.tradinghours.com/exchanges/bnv" xr:uid="{0087807F-92E6-4DAC-9E9F-978D752E9F05}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.tradinghours.com/exchanges/tsx" xr:uid="{16FCBB98-DCE8-4621-9638-D29C4EB70644}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.tradinghours.com/exchanges/bse-bombay" xr:uid="{A96E59A2-3A4A-4413-9657-0F0CC6D8D5DC}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.tradinghours.com/exchanges/fsx" xr:uid="{0CE85572-FB22-4077-B7A1-0FE04FDE0F34}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.tradinghours.com/exchanges/six" xr:uid="{567237DB-440D-4E78-BD50-889BB56E8D39}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.tradinghours.com/exchanges/asx" xr:uid="{5F6C1415-65AC-4A65-BB73-489F7AD2F1D0}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.tradinghours.com/exchanges/krx" xr:uid="{2A6974DF-800B-4A18-95F0-F012C8FE7263}"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.tradinghours.com/exchanges/twse" xr:uid="{CC8DD5F6-C5F6-4978-BAC9-01587BF10B86}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.tradinghours.com/exchanges/bovespa" xr:uid="{9327DE25-E0FB-4941-862D-8FC0FF13A70A}"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.tradinghours.com/exchanges/jse" xr:uid="{5FEDADB3-1AAF-4F77-9724-D8DAA599F8B7}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.tradinghours.com/exchanges/bmex" xr:uid="{EFD4734E-ABA9-48D6-914A-82ACA7D3E280}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.tradinghours.com/exchanges/moex" xr:uid="{C7864B0E-23EA-4FC4-B371-AFAD4055BDBC}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.tradinghours.com/exchanges/sgx" xr:uid="{60761FB9-D145-4873-9A7D-46D175032073}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.tradinghours.com/exchanges/idx" xr:uid="{66B6E606-08B7-4047-8EA3-FEB43CC8BAA4}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.tradinghours.com/exchanges/bmv" xr:uid="{C2B83076-5D0B-4180-AC6E-533B8FA23B33}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.tradinghours.com/exchanges/myx" xr:uid="{9E54378B-1940-4959-B01C-3B6F4C46FF28}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.tradinghours.com/exchanges/ose" xr:uid="{EE8ABF3E-C7BA-4A99-BDC4-9069B6AE238E}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.tradinghours.com/exchanges/pse" xr:uid="{E13DF488-A309-480F-8C06-3D037C9A1C70}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.tradinghours.com/exchanges/tase" xr:uid="{6E342731-79EC-4EAB-BC5D-085B90469EE3}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://www.tradinghours.com/exchanges/bist" xr:uid="{5F0415B3-142D-45BF-9B31-4C803B945A1F}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://www.tradinghours.com/exchanges/qe" xr:uid="{0CA6FCF7-9DBA-4D64-94F0-61B6FF717755}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://www.tradinghours.com/exchanges/gpw" xr:uid="{4815A690-1934-4196-A522-C39A8C3173ED}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://www.tradinghours.com/exchanges/adx" xr:uid="{F3B4620D-EA60-4710-B01B-F996A708049B}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://www.tradinghours.com/exchanges/hose" xr:uid="{A9D70656-DBA6-4E70-9064-618CD5DEF327}"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://www.tradinghours.com/exchanges/nsx" xr:uid="{0D7E84F0-133E-4F23-BC4B-B8EB763840FC}"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://www.tradinghours.com/exchanges/bvc" xr:uid="{D86FB7D7-86C0-416E-9518-77A3DA5DF804}"/>
+    <hyperlink ref="A35" r:id="rId33" display="https://www.tradinghours.com/exchanges/tpex" xr:uid="{512662B7-7C70-437B-9C42-A28B831FE0B5}"/>
+    <hyperlink ref="A36" r:id="rId34" display="https://www.tradinghours.com/exchanges/nzx" xr:uid="{941492EA-285A-44FA-B6A6-258023E2F22D}"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://www.tradinghours.com/exchanges/dfm" xr:uid="{820B5449-D0E2-4301-AB2D-1D14FAD67F32}"/>
+    <hyperlink ref="A38" r:id="rId36" display="https://www.tradinghours.com/exchanges/bvl" xr:uid="{CAE753B9-ACDD-4F49-84F3-B8079DB6FE9F}"/>
+    <hyperlink ref="A39" r:id="rId37" display="https://www.tradinghours.com/exchanges/bc" xr:uid="{C276D0FE-EF06-46A0-9902-E34993473213}"/>
+    <hyperlink ref="A40" r:id="rId38" display="https://www.tradinghours.com/exchanges/ifb" xr:uid="{1B56EAC6-CF2B-4302-BCF9-33645FC808A8}"/>
+    <hyperlink ref="A41" r:id="rId39" display="https://www.tradinghours.com/exchanges/nse-nigeria" xr:uid="{B39070E2-DCF8-4118-A7B1-7B94B393961B}"/>
+    <hyperlink ref="A42" r:id="rId40" display="https://www.tradinghours.com/exchanges/egx" xr:uid="{886DC435-21B8-461A-B0E6-E23E94B8CBB9}"/>
+    <hyperlink ref="A43" r:id="rId41" display="https://www.tradinghours.com/exchanges/luxse" xr:uid="{A483E337-6B3D-4A17-8907-48FD3502CFB7}"/>
+    <hyperlink ref="A44" r:id="rId42" display="https://www.tradinghours.com/exchanges/kase" xr:uid="{82A97CED-C626-45A5-AACC-B51DAE6A1CBF}"/>
+    <hyperlink ref="A45" r:id="rId43" display="https://www.tradinghours.com/exchanges/cse" xr:uid="{9118D7F8-FDAA-4C0A-90DF-8456435A41DD}"/>
+    <hyperlink ref="A46" r:id="rId44" display="https://www.tradinghours.com/exchanges/dse" xr:uid="{367334D3-F599-427B-B480-B9098BD441B8}"/>
+    <hyperlink ref="A47" r:id="rId45" display="https://www.tradinghours.com/exchanges/bse-budapest" xr:uid="{66559828-0D9A-4EDC-B1D0-B36A158D4855}"/>
+    <hyperlink ref="A48" r:id="rId46" display="https://www.tradinghours.com/exchanges/bhb" xr:uid="{28072C07-1203-4078-A28D-9082E74DAF95}"/>
+    <hyperlink ref="A49" r:id="rId47" display="https://www.tradinghours.com/exchanges/bvb" xr:uid="{4597F409-C9A4-4F20-A5F7-BA582DACC4D8}"/>
+    <hyperlink ref="A50" r:id="rId48" display="https://www.tradinghours.com/exchanges/zse" xr:uid="{1DF59AF9-1CCD-4127-B8DA-5F380E5F537D}"/>
+    <hyperlink ref="A51" r:id="rId49" display="https://www.tradinghours.com/exchanges/ase-amman" xr:uid="{A58F7E70-504A-49D6-83BE-B46B49A4DCA6}"/>
+    <hyperlink ref="A52" r:id="rId50" display="https://www.tradinghours.com/exchanges/msm" xr:uid="{83637919-5E14-4B21-9E79-808D6F3E430F}"/>
+    <hyperlink ref="A53" r:id="rId51" display="https://www.tradinghours.com/exchanges/bvpa" xr:uid="{7EA8DE4F-8B7F-4CE5-AD24-DB917D249ADF}"/>
+    <hyperlink ref="A54" r:id="rId52" display="https://www.tradinghours.com/exchanges/cse-colombo" xr:uid="{C0850C7B-45A8-46E0-B6E1-476B7BFEF188}"/>
+    <hyperlink ref="A55" r:id="rId53" display="https://www.tradinghours.com/exchanges/jse-jamaica" xr:uid="{9264EC58-8FD9-4091-9F7D-1F823FBF2249}"/>
+    <hyperlink ref="A56" r:id="rId54" display="https://www.tradinghours.com/exchanges/sem" xr:uid="{F465437A-EBA1-4954-858B-1BA1398474F1}"/>
+    <hyperlink ref="A57" r:id="rId55" display="https://www.tradinghours.com/exchanges/bse-beirut" xr:uid="{6CD5D4F5-D0D4-4AD6-A435-42C86026B65E}"/>
+    <hyperlink ref="A58" r:id="rId56" display="https://www.tradinghours.com/exchanges/bvmt" xr:uid="{629906DE-6C59-416D-91DB-4B841788E228}"/>
+    <hyperlink ref="A59" r:id="rId57" display="https://www.tradinghours.com/exchanges/hnx" xr:uid="{B75E6019-B4BB-4CB5-8A6B-0299AD78E251}"/>
+    <hyperlink ref="A60" r:id="rId58" display="https://www.tradinghours.com/exchanges/euronext-paris" xr:uid="{2375B60A-761A-4B4F-89C7-2DB75CA41886}"/>
+    <hyperlink ref="A61" r:id="rId59" display="https://www.tradinghours.com/exchanges/brvm" xr:uid="{B88E1FD2-2A9A-4D42-BF01-FCB77E0E9AF3}"/>
+    <hyperlink ref="A62" r:id="rId60" display="https://www.tradinghours.com/exchanges/mse" xr:uid="{CBE09CAF-BF08-496C-8161-792F66F3DA20}"/>
+    <hyperlink ref="A63" r:id="rId61" display="https://www.tradinghours.com/exchanges/cse-cyprus" xr:uid="{5AFABB35-AC4F-4BA1-AA2D-FA6885CA4C94}"/>
+    <hyperlink ref="A64" r:id="rId62" display="https://www.tradinghours.com/exchanges/ux" xr:uid="{B83318C5-F220-4DCF-98AE-4F2F9A9E8331}"/>
+    <hyperlink ref="A65" r:id="rId63" display="https://www.tradinghours.com/exchanges/pex" xr:uid="{DD327224-4FE9-4193-BBB4-8C2D375F09C7}"/>
+    <hyperlink ref="A66" r:id="rId64" display="https://www.tradinghours.com/exchanges/bse-botswana" xr:uid="{B3788AD5-218D-4BA5-A76A-7A37844672A3}"/>
+    <hyperlink ref="A67" r:id="rId65" display="https://www.tradinghours.com/exchanges/bde-barbados" xr:uid="{5BF1DD77-3F51-4C99-ABC0-61E593F15402}"/>
+    <hyperlink ref="A68" r:id="rId66" display="https://www.tradinghours.com/exchanges/bsx" xr:uid="{DA2295E6-4687-4F08-99C4-5B74136EC961}"/>
+    <hyperlink ref="A69" r:id="rId67" display="https://www.tradinghours.com/exchanges/bnv" xr:uid="{0087807F-92E6-4DAC-9E9F-978D752E9F05}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
